--- a/docs/SBD_schedule.xlsx
+++ b/docs/SBD_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrei/Documents/homepage/distill_homepage/Slubi_distill_homepage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB0B87-5F13-BA4E-A699-5E7B3A265D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64E3D7-A8D8-1F42-A55E-3AE0393D2CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{409AFE47-B704-6B47-9E2E-ED574346614A}"/>
+    <workbookView xWindow="8980" yWindow="8300" windowWidth="27640" windowHeight="16940" xr2:uid="{409AFE47-B704-6B47-9E2E-ED574346614A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Gabriella Lindgren</t>
   </si>
@@ -50,9 +50,6 @@
     <t>break</t>
   </si>
   <si>
-    <t>Alvaro Martinez Barrio</t>
-  </si>
-  <si>
     <t>20 years of computational biology: where the road has taken us and the highway is leading</t>
   </si>
   <si>
@@ -80,15 +77,9 @@
     <t>Moritz Buck</t>
   </si>
   <si>
-    <t>Anna Szekely</t>
-  </si>
-  <si>
     <t>closing and fika</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -158,40 +149,55 @@
     <t>introduction</t>
   </si>
   <si>
-    <t>Genetics of hair growth in horses</t>
-  </si>
-  <si>
-    <t>Animal health and genetics in dogs</t>
-  </si>
-  <si>
     <t>Latest methods and their applications for agricultural research</t>
   </si>
   <si>
-    <t>Big Data in cattle: Gigacow</t>
-  </si>
-  <si>
     <t>Digitalization in agricultural practices</t>
   </si>
   <si>
-    <t>Bioinformatics in agricultural research, what is here, what is needed?</t>
-  </si>
-  <si>
     <t>Genome editing in potatos</t>
   </si>
   <si>
-    <t>Plant-root microbiomes</t>
-  </si>
-  <si>
-    <t>Aquatic metagenomics</t>
-  </si>
-  <si>
-    <t>eDNA as a tool for environmental monitoring</t>
-  </si>
-  <si>
-    <t>Nitrogen cycling and microbial communities</t>
-  </si>
-  <si>
-    <t>Crop diversity and health: Cassava genome</t>
+    <t>An endothelial regulatory module links blood pressure regulation with elite athletic performance</t>
+  </si>
+  <si>
+    <t>Bioinformatics analyses of genomics, epigenomics and transcriptomics data of complex diseases </t>
+  </si>
+  <si>
+    <t>Bioinformatics R-ABCD: Research Acceleration with Big Cow Data in Gigacow</t>
+  </si>
+  <si>
+    <t>Crop diversity and health: assembling the cassave genome</t>
+  </si>
+  <si>
+    <t>Bioinformatics in Agricultural Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> what is here</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> what is needed?</t>
+  </si>
+  <si>
+    <t>Microbes driving nitrogen losses and retention in soils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant-root microbiome interactions </t>
+  </si>
+  <si>
+    <t>Microbial diversity and nutrient cycling in the central arctic ocean</t>
+  </si>
+  <si>
+    <t>Environmental virus sequencing and genotyping as a tool of epidemiological monitoring</t>
+  </si>
+  <si>
+    <t>Anna Székely</t>
+  </si>
+  <si>
+    <t>Álvaro Martínez Barrio</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -199,9 +205,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-SE,1]hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-SE,1]hh:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,13 +222,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,12 +262,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,39 +584,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B0A0D7-97CC-0A48-A3C6-1C773D44FC17}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -598,9 +625,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -609,169 +636,173 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/SBD_schedule.xlsx
+++ b/docs/SBD_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrei/Documents/homepage/distill_homepage/Slubi_distill_homepage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64E3D7-A8D8-1F42-A55E-3AE0393D2CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B59CC18-6894-3349-8399-661CE69AE6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8980" yWindow="8300" windowWidth="27640" windowHeight="16940" xr2:uid="{409AFE47-B704-6B47-9E2E-ED574346614A}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>Digitalization in agricultural practices</t>
   </si>
   <si>
-    <t>Genome editing in potatos</t>
-  </si>
-  <si>
     <t>An endothelial regulatory module links blood pressure regulation with elite athletic performance</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Bioinformatics R-ABCD: Research Acceleration with Big Cow Data in Gigacow</t>
   </si>
   <si>
-    <t>Crop diversity and health: assembling the cassave genome</t>
-  </si>
-  <si>
     <t>Bioinformatics in Agricultural Sciences</t>
   </si>
   <si>
@@ -198,6 +192,12 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Crop diversity and health: assembling the cassava genome</t>
+  </si>
+  <si>
+    <t>Genome editing in potatoes</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -672,7 +672,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -719,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,10 +788,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/SBD_schedule.xlsx
+++ b/docs/SBD_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrei/Documents/homepage/distill_homepage/Slubi_distill_homepage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B59CC18-6894-3349-8399-661CE69AE6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F820A0E9-521D-C044-8CD6-5780AEF46709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8980" yWindow="8300" windowWidth="27640" windowHeight="16940" xr2:uid="{409AFE47-B704-6B47-9E2E-ED574346614A}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>introduction</t>
   </si>
   <si>
-    <t>Latest methods and their applications for agricultural research</t>
-  </si>
-  <si>
     <t>Digitalization in agricultural practices</t>
   </si>
   <si>
@@ -194,10 +191,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Crop diversity and health: assembling the cassava genome</t>
-  </si>
-  <si>
     <t>Genome editing in potatoes</t>
+  </si>
+  <si>
+    <t>Utilizing cassava genomes for genomics-assisted breeding</t>
+  </si>
+  <si>
+    <t>Genomics for agriculture - two cases</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -672,7 +672,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,10 +788,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
